--- a/biology/Botanique/Jardin_de_Sioufi/Jardin_de_Sioufi.xlsx
+++ b/biology/Botanique/Jardin_de_Sioufi/Jardin_de_Sioufi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de Sioufi est un jardin public dans le district d'Achrafieh à Beyrouth, au Liban. Le jardin donne sur l'avenue Président Émile Lahoud, le fleuve de Beyrouth et les sommets du Mont Liban. La superficie du jardin est de 20 000 mètres carrés.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a pris son nom de son emplacement dans le quartier de Sioufi, situé à l’est de la colline d’Achrafieh. Le nom du quartier vient des usines de meubles de Sioufi construites dans la région en 1910; comme service au public, les propriétaires des usines maintenaient un jardin ouvert au public.
 </t>
@@ -542,9 +556,11 @@
           <t>Art publique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1997, Ashkal Alwan - L’Association libanaise des arts plastiques, en partenariat avec le Ministère libanais de la culture, a collaboré avec dix artistes afin d’installer définitivement leurs œuvres dans le jardin de Sioufi[1]. Le but de l'installation permanente était de sensibiliser et d'éduquer le public sur l'importance culturelle de l'art et des espaces publics, ainsi que de permettre aux générations futures d'accéder au travail créatif[2].Cet accès a permis au public et à la nature de modifier les œuvres d'art pour répondre au mieux à leurs besoins, comme La Garde de Charles Khoury a baissé ses ailes pour que les enfants puissent y monter. Ceci est l'une des nombreuses possibilités d'interaction avec les œuvres d'art pour les générations futures et passées avec une liste ci-dessous :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1997, Ashkal Alwan - L’Association libanaise des arts plastiques, en partenariat avec le Ministère libanais de la culture, a collaboré avec dix artistes afin d’installer définitivement leurs œuvres dans le jardin de Sioufi. Le but de l'installation permanente était de sensibiliser et d'éduquer le public sur l'importance culturelle de l'art et des espaces publics, ainsi que de permettre aux générations futures d'accéder au travail créatif.Cet accès a permis au public et à la nature de modifier les œuvres d'art pour répondre au mieux à leurs besoins, comme La Garde de Charles Khoury a baissé ses ailes pour que les enfants puissent y monter. Ceci est l'une des nombreuses possibilités d'interaction avec les œuvres d'art pour les générations futures et passées avec une liste ci-dessous :
 La sphère de Marwan Rechmaoui dépend de la hauteur de vos genoux. Si c'est deux fois la hauteur de vos genoux, c’est une cachette idéale pour une partie de cache-cache, si c'est trois fois la hauteur des genoux, vous avez une chance de devenir Atlas car vous pouvez vous positionner de la même manière que celle décrite dans l'art classique. Si vous avez dépassé cette période, qui est généralement associée à l’introduction de la démocratie, elle peut servir de surface pour s’asseoir à moins qu’elle ne soit trop chaude. De cette manière, vous avez un point de vue de tout ce qui vous entoure sauf ce qui est sous vos genoux.
 La sculpture en ciment de Carma Naim Barakat est composée de cinq personnages ressemblant à des êtres humains dans une formation similaire à celle de Stonehenge. Les visiteurs du parc utilisent généralement les surfaces lisses pour s'asseoir car cette sculpture offre non seulement une position assise mais également une surface de table, ce qui manque aux bancs du parc dans le jardin de Souifi. L’intention initiale de l’artiste pour les surfaces de la table est d’incarner la forme abstraite de la tête humaine.
 De même, Hommage à Saint-Exupéry, destiné à permettre aux adultes de méditer et aux enfants de s’inspirer, conserve sa fonction en permettant aux visiteurs de reformuler sa métaphore visuelle en chaises longues afin de disposer d’un lieu de repos pour ces activités.
